--- a/output/fit_clients/fit_round_450.xlsx
+++ b/output/fit_clients/fit_round_450.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1704059206.894589</v>
+        <v>1811444822.29412</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1118089697724604</v>
+        <v>0.09315630245723844</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03240234567257957</v>
+        <v>0.04494228333929275</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>852029559.2847408</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2442450311.079661</v>
+        <v>1969147045.014955</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1588764021691687</v>
+        <v>0.1346689603282413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0355182087948329</v>
+        <v>0.04203494737698444</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1221225264.139034</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3515223281.533091</v>
+        <v>4537184794.450817</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1617377633254718</v>
+        <v>0.121714270366171</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03328091705338083</v>
+        <v>0.03269579450451857</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>163</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1757611620.623381</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3880126227.488524</v>
+        <v>3901952331.354873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07049970071490291</v>
+        <v>0.08974558131455435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03173677103577602</v>
+        <v>0.03673334223845472</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>166</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1940063125.392327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2127118351.293609</v>
+        <v>1733884773.219095</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1058584163984358</v>
+        <v>0.1387873656471235</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03992570896787369</v>
+        <v>0.03751179633742171</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1063559191.501843</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2187508568.846179</v>
+        <v>2307209275.354352</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07158342479476833</v>
+        <v>0.06480714549612257</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03142417300950722</v>
+        <v>0.04566755157688999</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>142</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1093754327.554917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2705910514.056956</v>
+        <v>2622969186.425512</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1618226001058159</v>
+        <v>0.1960820140760182</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02646763390080579</v>
+        <v>0.0333866025363268</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>144</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1352955284.496594</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1464289033.218311</v>
+        <v>2015023141.095042</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1342465190982719</v>
+        <v>0.1284590832271079</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02702637212591626</v>
+        <v>0.02507870949375766</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>732144617.5662544</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4934280355.983819</v>
+        <v>4326620334.105912</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1773449987681154</v>
+        <v>0.1521622321197578</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0404405838548095</v>
+        <v>0.05293825650632691</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>190</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2467140272.212992</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3640848361.449144</v>
+        <v>3276521173.085012</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1803652550386438</v>
+        <v>0.1261973125319943</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03778574669591087</v>
+        <v>0.03414341277579126</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>186</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1820424168.419711</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2604016220.160869</v>
+        <v>2240926573.170141</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1686173049306156</v>
+        <v>0.1242961658037215</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0341403451659231</v>
+        <v>0.04253345450479673</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>152</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1302008091.836532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4704938562.316787</v>
+        <v>3673719027.271366</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09112871868314469</v>
+        <v>0.1005041531113919</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02352417760285527</v>
+        <v>0.03007563197095961</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>152</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2352469300.302232</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2957878775.162562</v>
+        <v>2487247279.802172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1251948076119735</v>
+        <v>0.1303136662566947</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04414523858908422</v>
+        <v>0.0314588879527572</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>145</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1478939425.090381</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1120644585.214761</v>
+        <v>1636177218.853113</v>
       </c>
       <c r="F15" t="n">
-        <v>0.066079423015973</v>
+        <v>0.1031463307173221</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03958836684581473</v>
+        <v>0.04713256453594238</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>560322292.1095183</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2539343899.968755</v>
+        <v>1861478961.60369</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07401666446878176</v>
+        <v>0.07215686262097006</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04566576157022243</v>
+        <v>0.04368708356474019</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1269671977.299147</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3265165008.995082</v>
+        <v>4612211644.421536</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1255365486359211</v>
+        <v>0.1562411620408797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04133737774068019</v>
+        <v>0.04090847925072943</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1632582575.427055</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3334639571.265012</v>
+        <v>3561598161.974254</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1713398624132852</v>
+        <v>0.1614638845703582</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02308120453627197</v>
+        <v>0.02123462603809419</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>148</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1667319791.736889</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1218003916.257505</v>
+        <v>831130757.3206456</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1166555675450108</v>
+        <v>0.1589815236415266</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02179074624702592</v>
+        <v>0.0222350816882666</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>609002040.4368528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2574276354.777317</v>
+        <v>1762750218.286468</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1172503361323003</v>
+        <v>0.1151841539263635</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02146915873002372</v>
+        <v>0.02521614075037202</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1287138142.595912</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2283400750.072147</v>
+        <v>1943420176.227862</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06406417627244787</v>
+        <v>0.08544617276273414</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03773864736535309</v>
+        <v>0.03842582556411166</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>35</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1141700383.899045</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2560620392.636613</v>
+        <v>2797996462.513369</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1338403979413145</v>
+        <v>0.1162372490357074</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05404044319394651</v>
+        <v>0.04714475702493086</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1280310284.181764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>983774500.7497176</v>
+        <v>1275537419.868305</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1856555292894933</v>
+        <v>0.147334454032205</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03498682765696522</v>
+        <v>0.03644117717189786</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>491887323.3033516</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3764300971.022646</v>
+        <v>3313003605.767688</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1378407738301015</v>
+        <v>0.111851669680751</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02661047980865295</v>
+        <v>0.02659863783567963</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>132</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1882150469.375656</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1244763517.339296</v>
+        <v>1325208920.788282</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1153325431342426</v>
+        <v>0.1109702819747066</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01999374372591368</v>
+        <v>0.0297472410474747</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>622381766.3625242</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1331712500.755483</v>
+        <v>1010434797.35826</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09394666887712411</v>
+        <v>0.106988665054094</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03219083137779024</v>
+        <v>0.02495021123111452</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>665856303.6510808</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4539177864.750457</v>
+        <v>4260256559.144832</v>
       </c>
       <c r="F27" t="n">
-        <v>0.108736285859938</v>
+        <v>0.09704947001158246</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01802822973923224</v>
+        <v>0.02544959114067639</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2269588915.753462</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3420245860.781739</v>
+        <v>2616859832.511729</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1104814464756037</v>
+        <v>0.1440836457933602</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03653669804264711</v>
+        <v>0.04467945658539699</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1710122978.142859</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4949751193.346951</v>
+        <v>5247101625.484673</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1372163008015125</v>
+        <v>0.1293602535100468</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04375041259406604</v>
+        <v>0.04099026020154746</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>199</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2474875547.702083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1727710203.220341</v>
+        <v>1680857894.869793</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1181516827932364</v>
+        <v>0.08541969691413283</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03124414509604637</v>
+        <v>0.03859395935727284</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>863855108.0766832</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1409967747.037058</v>
+        <v>1150375219.357335</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09436379742771597</v>
+        <v>0.07710793803114065</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03695404082614329</v>
+        <v>0.05169879851819844</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>704983775.571659</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1222985026.495371</v>
+        <v>1352192190.092054</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1026484513498879</v>
+        <v>0.07790474719517858</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02435955575025157</v>
+        <v>0.0340799351848745</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>611492524.2427053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2356117116.748898</v>
+        <v>2408548012.635717</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1607239969139916</v>
+        <v>0.1984771640207809</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06009507838356297</v>
+        <v>0.05084597729647504</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>138</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1178058608.839978</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1484634100.991953</v>
+        <v>1199523560.743739</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1205037018425174</v>
+        <v>0.1148249234031303</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02683905916362391</v>
+        <v>0.02117576424173602</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>742317008.8616163</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1332778932.778133</v>
+        <v>986469744.1215048</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07394706910981001</v>
+        <v>0.08315535895239248</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0284041195186817</v>
+        <v>0.03397739904677745</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>666389412.012506</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3011056120.59197</v>
+        <v>3087264823.641056</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1406641991853974</v>
+        <v>0.1174360074890426</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02706956957570642</v>
+        <v>0.02736142247311108</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1505528041.324299</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1940752112.61911</v>
+        <v>2887585893.411358</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06765330044297121</v>
+        <v>0.07582344950261961</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02909135311911338</v>
+        <v>0.02819817138945857</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>120</v>
-      </c>
-      <c r="J37" t="n">
-        <v>970376075.4473553</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1957899876.195809</v>
+        <v>1727893524.709552</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07443588065473661</v>
+        <v>0.08356808740959729</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03349925088970467</v>
+        <v>0.02822594211949947</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>978949922.696113</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2076732063.051895</v>
+        <v>1841567110.557076</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1308876213110485</v>
+        <v>0.1463713345735893</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02187728412244377</v>
+        <v>0.02722802415461806</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1038366014.41917</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1122271224.560264</v>
+        <v>1215481190.973789</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1220151034828907</v>
+        <v>0.1553519922870686</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05909297988261813</v>
+        <v>0.0391014344078054</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>561135673.0478363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2207365889.533734</v>
+        <v>2269861202.300355</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1053824272069663</v>
+        <v>0.1635469790366203</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03064890977861177</v>
+        <v>0.03178878138071465</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1103682998.758096</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2811698602.759511</v>
+        <v>3781522958.037784</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07717113336560252</v>
+        <v>0.09971062014409464</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04577086569854881</v>
+        <v>0.0362168395087022</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1405849248.882455</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2778152257.969199</v>
+        <v>2021941386.392014</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1876364859843987</v>
+        <v>0.1709340419832542</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02276705949582869</v>
+        <v>0.0240813799154696</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>156</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1389076149.680398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1446777523.811832</v>
+        <v>1539364282.955304</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0629631127584052</v>
+        <v>0.06860485481238615</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02676159639251255</v>
+        <v>0.0362391865749117</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>723388757.8760231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1725458221.205442</v>
+        <v>2385774105.909247</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1437756487102485</v>
+        <v>0.1385489890869239</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04825624969098347</v>
+        <v>0.04686805018017871</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>862729073.8228084</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4643257393.845912</v>
+        <v>4214603284.076314</v>
       </c>
       <c r="F46" t="n">
-        <v>0.165749203382736</v>
+        <v>0.1347471739384659</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04358670658456931</v>
+        <v>0.05035430624609177</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>160</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2321628703.343581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5046836662.356887</v>
+        <v>3165535645.78861</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1937562782453083</v>
+        <v>0.1619599721090986</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0433652492356108</v>
+        <v>0.05304449870938877</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2523418389.632366</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3256884412.756887</v>
+        <v>3518107366.27013</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08710100984527877</v>
+        <v>0.09496286204241193</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03722061143905465</v>
+        <v>0.03707172271998679</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>147</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1628442283.959875</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1555171250.144947</v>
+        <v>1674123837.211397</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1835452279639077</v>
+        <v>0.1795866502135745</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03092907728876344</v>
+        <v>0.02705114457121673</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>777585648.5509238</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3317009885.155268</v>
+        <v>2590036533.554962</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1242119858706135</v>
+        <v>0.1256703087709975</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04042993425991176</v>
+        <v>0.04626772265165335</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>155</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1658504979.861224</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1515097862.570762</v>
+        <v>1161417884.126915</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1791546411826714</v>
+        <v>0.145055270812198</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05423308898379964</v>
+        <v>0.05032776101801602</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>757548931.7930508</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4214727307.748288</v>
+        <v>4148282747.582353</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1092066160923236</v>
+        <v>0.1194678215272199</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04395171636823863</v>
+        <v>0.04196032019316503</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>186</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2107363697.731941</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2714548544.275479</v>
+        <v>3477932747.139747</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1695062481325926</v>
+        <v>0.1851211712379173</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0231614877228823</v>
+        <v>0.03219002532496797</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>129</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1357274324.332015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4282856276.992461</v>
+        <v>4896825253.434987</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1562799432366299</v>
+        <v>0.1689371119936963</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03434835015252152</v>
+        <v>0.04794899970540166</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>147</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2141428224.782363</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3753837278.727649</v>
+        <v>4934130356.803</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1410743998474286</v>
+        <v>0.1838075460350744</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02457564937262104</v>
+        <v>0.02994965416834802</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>118</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1876918603.408638</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1166027404.950434</v>
+        <v>1793313277.272793</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1197788423429093</v>
+        <v>0.14682488691645</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04597244123595417</v>
+        <v>0.05021052142657139</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>583013794.2464279</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3980460358.578207</v>
+        <v>3939204757.482396</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1169770601379117</v>
+        <v>0.1118224249574216</v>
       </c>
       <c r="G57" t="n">
-        <v>0.019288050529905</v>
+        <v>0.02470346224976058</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>143</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1990230266.034374</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1826936900.967808</v>
+        <v>1366650032.453183</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1613972045512524</v>
+        <v>0.195587214664219</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02395618231079399</v>
+        <v>0.0333523525213418</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>913468451.8000896</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5094958941.23856</v>
+        <v>5326498045.908502</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1179651436844772</v>
+        <v>0.102841502080224</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0399819807818915</v>
+        <v>0.04083584391414976</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2547479393.777367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3722558977.350694</v>
+        <v>2948399382.722223</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1364782659018786</v>
+        <v>0.1338632670907312</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02501614490865653</v>
+        <v>0.02506015275999508</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>142</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1861279634.83659</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2859659953.700291</v>
+        <v>3331806607.691718</v>
       </c>
       <c r="F61" t="n">
-        <v>0.139568313425549</v>
+        <v>0.1698436309890843</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02225030339630321</v>
+        <v>0.02558588177467231</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>155</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1429829970.57291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1987878849.869621</v>
+        <v>1935024100.444189</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1523412578738544</v>
+        <v>0.1771849545816318</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04060369426715597</v>
+        <v>0.04967348921866578</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>993939481.2140433</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5410495098.106408</v>
+        <v>5057585102.609581</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07695164881111768</v>
+        <v>0.1041148547484046</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03414265662496854</v>
+        <v>0.03910633262319409</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2705247548.521499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3668499649.530366</v>
+        <v>4204709825.596528</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1468124657492788</v>
+        <v>0.1200822727910324</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02639993715042213</v>
+        <v>0.02191475442628852</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>140</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1834249837.332431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4767812082.890862</v>
+        <v>5458655616.650515</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1089384040030332</v>
+        <v>0.1632811953993819</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02996981397905344</v>
+        <v>0.02426582260218479</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>162</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2383906014.217684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4159215029.243861</v>
+        <v>4562569212.382781</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1041034414344929</v>
+        <v>0.09977574518310203</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03541973297582063</v>
+        <v>0.04729183668787395</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2079607496.793875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2549896478.472927</v>
+        <v>2286927335.221981</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0687736056712146</v>
+        <v>0.06362326725761287</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04322416269420603</v>
+        <v>0.04330021572433024</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>144</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1274948295.63304</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4714765517.717861</v>
+        <v>4532776363.284254</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1095599478323877</v>
+        <v>0.1150677916501154</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03123243164299472</v>
+        <v>0.03565460542805766</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>145</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2357382797.994699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1838829070.392637</v>
+        <v>1794012371.068501</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1801800069227987</v>
+        <v>0.1567969869453767</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05704745907276377</v>
+        <v>0.03746136686732474</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>919414519.3581439</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3054116948.986788</v>
+        <v>2926322757.754856</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0895407588819316</v>
+        <v>0.09152066575834386</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04756062973623316</v>
+        <v>0.04469696136034187</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>129</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1527058455.034349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3885740534.9813</v>
+        <v>4943905126.685741</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1679864850048297</v>
+        <v>0.1400742437014702</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02120780457378547</v>
+        <v>0.0273615133610228</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>164</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1942870290.016238</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2118380017.086585</v>
+        <v>1376507206.135871</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07607204562101236</v>
+        <v>0.07909296925632553</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03740737222031156</v>
+        <v>0.03712768456160512</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1059189935.811927</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2461010701.102586</v>
+        <v>2598732757.173927</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09918848242071007</v>
+        <v>0.06890763445348777</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04149182967558401</v>
+        <v>0.03424493961393273</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>171</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1230505395.896926</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3646637902.671506</v>
+        <v>3714973443.046789</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1534349122582948</v>
+        <v>0.1280847205601214</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02399596021217516</v>
+        <v>0.02232349181604987</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>154</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1823318960.847011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1643936282.785835</v>
+        <v>2441760286.215489</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1051223950455957</v>
+        <v>0.1460294035978157</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03329918752165233</v>
+        <v>0.03637072057074373</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>821968139.0370183</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3965234982.791923</v>
+        <v>3593617334.081468</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1079579403618988</v>
+        <v>0.1233382885437617</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02144385933242953</v>
+        <v>0.0326344548716471</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1982617474.696515</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2176033408.359478</v>
+        <v>1644884627.355244</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1709911499699593</v>
+        <v>0.1134767114596974</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03082711695399832</v>
+        <v>0.02897189555250814</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1088016791.754942</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3548134042.719304</v>
+        <v>4429719527.778797</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1231071146382094</v>
+        <v>0.1270385393010693</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05412826331529368</v>
+        <v>0.05567917717599513</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>157</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1774067019.458244</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1339065500.734492</v>
+        <v>1301454321.430819</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1691959855217733</v>
+        <v>0.1523837505586109</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0255243327338947</v>
+        <v>0.02538143204155412</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>669532756.4407754</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5070584450.256143</v>
+        <v>4140821823.93725</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0674608307528004</v>
+        <v>0.1102964842145884</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03702018903616469</v>
+        <v>0.02845042182936012</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2535292277.851564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4878825156.572173</v>
+        <v>3451099602.159558</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09594998400642185</v>
+        <v>0.09877313750938457</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02175320224935997</v>
+        <v>0.01999526626706379</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>100</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2439412574.128675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3779013535.225143</v>
+        <v>5307376571.176397</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1992299003609974</v>
+        <v>0.1734780024378632</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02867499985789405</v>
+        <v>0.02901576581771295</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>157</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1889506819.717373</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1803593410.293039</v>
+        <v>1644432411.381885</v>
       </c>
       <c r="F83" t="n">
-        <v>0.148148605156186</v>
+        <v>0.1102789719250245</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03988722737593325</v>
+        <v>0.04300729155675472</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>901796666.060285</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1984870174.327121</v>
+        <v>1728342488.793393</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07896249951792703</v>
+        <v>0.1125180589169309</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04494738313233884</v>
+        <v>0.03407016100678867</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>992435094.4535892</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2561453639.059055</v>
+        <v>2854097105.027645</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1407961615418749</v>
+        <v>0.120124922665853</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05238609205079935</v>
+        <v>0.05112181327861583</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>169</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1280726831.272103</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2012892760.261235</v>
+        <v>1904168877.336214</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1046842268003845</v>
+        <v>0.1434831060898133</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01687143615514946</v>
+        <v>0.02398908718777024</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1006446409.559877</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1045471170.213982</v>
+        <v>1395674509.684869</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1209566967321766</v>
+        <v>0.1377739298441954</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03055310592320364</v>
+        <v>0.03548347613881028</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>522735601.1246964</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3316314532.441016</v>
+        <v>2669318259.195663</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1542946342877601</v>
+        <v>0.1575986500122887</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03509449152822774</v>
+        <v>0.02452442090591441</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>179</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1658157327.949228</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3094314276.846078</v>
+        <v>2344581901.996716</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1413109600836135</v>
+        <v>0.1491329736542651</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02566320221107535</v>
+        <v>0.02714941349993272</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>153</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1547157169.638592</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1483069170.576055</v>
+        <v>1979244865.720582</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1058811559650361</v>
+        <v>0.1160162610341873</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04372089569404725</v>
+        <v>0.03563594862399421</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>741534560.973569</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2035493470.236486</v>
+        <v>2047687562.68298</v>
       </c>
       <c r="F91" t="n">
-        <v>0.140589039712172</v>
+        <v>0.1562710119424727</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05488252901795829</v>
+        <v>0.05444363740906793</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1017746702.655969</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2791562582.506833</v>
+        <v>2596795249.520308</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08121434768504997</v>
+        <v>0.09812124848110987</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03570140674484831</v>
+        <v>0.03721738049802804</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>123</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1395781297.258739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4345887941.907103</v>
+        <v>4686447171.164256</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1372316165712531</v>
+        <v>0.08887940716387707</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03718528601709843</v>
+        <v>0.05053286096528711</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>134</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2172943949.234167</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1535658362.911757</v>
+        <v>2145772670.890463</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1681758098210111</v>
+        <v>0.1585132987475961</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03042155302336167</v>
+        <v>0.03793541748261759</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>767829119.3764219</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2217904344.252542</v>
+        <v>2616280542.096707</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1295064728586727</v>
+        <v>0.08725047754291336</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03566910506638107</v>
+        <v>0.0424735467612118</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1108952228.75658</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1714823689.124128</v>
+        <v>1480295713.879481</v>
       </c>
       <c r="F96" t="n">
-        <v>0.141340315323288</v>
+        <v>0.1162058574684408</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04036087309579482</v>
+        <v>0.0367728839535993</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>857411862.0026193</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4336070369.260324</v>
+        <v>3331018877.979772</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1737499131329006</v>
+        <v>0.1089817084982488</v>
       </c>
       <c r="G97" t="n">
-        <v>0.019948439218802</v>
+        <v>0.01850212935571304</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>144</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2168035268.056571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3088161041.955182</v>
+        <v>2474161353.915818</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1145949742587091</v>
+        <v>0.1239259491718573</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0262594699699502</v>
+        <v>0.0270126582423374</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1544080511.653238</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3379965679.284375</v>
+        <v>3437876273.426574</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08999442826159097</v>
+        <v>0.1430011818503265</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02509709849329067</v>
+        <v>0.02704633396293832</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>141</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1689982853.145687</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4671198304.299297</v>
+        <v>4028137576.778741</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1449162702840942</v>
+        <v>0.1086199034284434</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02825313719481085</v>
+        <v>0.02164070482491548</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2335599276.415438</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2226296968.588131</v>
+        <v>2388370449.866262</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1586105505840471</v>
+        <v>0.2078758762783471</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04441292796701397</v>
+        <v>0.03733485122661759</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>185</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1113148471.165338</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_450.xlsx
+++ b/output/fit_clients/fit_round_450.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1811444822.29412</v>
+        <v>2365272753.711787</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09315630245723844</v>
+        <v>0.09642169498746138</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04494228333929275</v>
+        <v>0.03699590715693294</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1969147045.014955</v>
+        <v>1746400528.268686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1346689603282413</v>
+        <v>0.156278485529394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04203494737698444</v>
+        <v>0.04025947590557572</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4537184794.450817</v>
+        <v>3980424393.748933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.121714270366171</v>
+        <v>0.1272959409563038</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03269579450451857</v>
+        <v>0.02652865170093632</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3901952331.354873</v>
+        <v>4195589140.399561</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08974558131455435</v>
+        <v>0.07963210212526191</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03673334223845472</v>
+        <v>0.04773659360535323</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1733884773.219095</v>
+        <v>2527701310.172758</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1387873656471235</v>
+        <v>0.1287361056975011</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03751179633742171</v>
+        <v>0.04363395034219748</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2307209275.354352</v>
+        <v>2272209621.777255</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06480714549612257</v>
+        <v>0.06253600499832894</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04566755157688999</v>
+        <v>0.03658393269736628</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2622969186.425512</v>
+        <v>3954870993.113489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1960820140760182</v>
+        <v>0.1440561605710856</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0333866025363268</v>
+        <v>0.02086321019880761</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2015023141.095042</v>
+        <v>1399211815.284708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1284590832271079</v>
+        <v>0.1802366371214918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02507870949375766</v>
+        <v>0.02661051890076953</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4326620334.105912</v>
+        <v>5541880080.48613</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1521622321197578</v>
+        <v>0.1381876751069811</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05293825650632691</v>
+        <v>0.04856463364122122</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3276521173.085012</v>
+        <v>3193304979.155643</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1261973125319943</v>
+        <v>0.1293267371719459</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03414341277579126</v>
+        <v>0.04827919270646416</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2240926573.170141</v>
+        <v>2550396783.891543</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1242961658037215</v>
+        <v>0.1297998030831689</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04253345450479673</v>
+        <v>0.05233634498315197</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3673719027.271366</v>
+        <v>5286308229.755032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1005041531113919</v>
+        <v>0.09252521275805116</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03007563197095961</v>
+        <v>0.02758364693179744</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2487247279.802172</v>
+        <v>3206247679.984286</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1303136662566947</v>
+        <v>0.1861544328075939</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0314588879527572</v>
+        <v>0.03307346262941473</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1636177218.853113</v>
+        <v>1585956938.012815</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1031463307173221</v>
+        <v>0.08248879020345008</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04713256453594238</v>
+        <v>0.04221309808763312</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1861478961.60369</v>
+        <v>2660247121.025552</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07215686262097006</v>
+        <v>0.07328368429808216</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04368708356474019</v>
+        <v>0.04910913399410005</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4612211644.421536</v>
+        <v>4928241814.417413</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1562411620408797</v>
+        <v>0.1351811146392329</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04090847925072943</v>
+        <v>0.0498962785000733</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3561598161.974254</v>
+        <v>3872293098.143129</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1614638845703582</v>
+        <v>0.1772793577584328</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02123462603809419</v>
+        <v>0.02143391946546608</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>831130757.3206456</v>
+        <v>1118932208.866454</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1589815236415266</v>
+        <v>0.1661093205432614</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0222350816882666</v>
+        <v>0.02044194322851951</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1762750218.286468</v>
+        <v>2357551826.743434</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1151841539263635</v>
+        <v>0.1020830900429165</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02521614075037202</v>
+        <v>0.0275462089089008</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1943420176.227862</v>
+        <v>2483108499.926262</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08544617276273414</v>
+        <v>0.09102036083262574</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03842582556411166</v>
+        <v>0.03017113863993345</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2797996462.513369</v>
+        <v>2860326353.132175</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1162372490357074</v>
+        <v>0.1131211392990285</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04714475702493086</v>
+        <v>0.03790701866632447</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1275537419.868305</v>
+        <v>1096704156.065306</v>
       </c>
       <c r="F23" t="n">
-        <v>0.147334454032205</v>
+        <v>0.1177076635339466</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03644117717189786</v>
+        <v>0.05184395853925305</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3313003605.767688</v>
+        <v>4037286086.412449</v>
       </c>
       <c r="F24" t="n">
-        <v>0.111851669680751</v>
+        <v>0.1254706749721947</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02659863783567963</v>
+        <v>0.0302575074338173</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1325208920.788282</v>
+        <v>1446800152.876986</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1109702819747066</v>
+        <v>0.1017154558862237</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0297472410474747</v>
+        <v>0.03025511004449734</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1010434797.35826</v>
+        <v>1390473777.112179</v>
       </c>
       <c r="F26" t="n">
-        <v>0.106988665054094</v>
+        <v>0.08220103945196129</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02495021123111452</v>
+        <v>0.02844801555157119</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4260256559.144832</v>
+        <v>4512689217.602966</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09704947001158246</v>
+        <v>0.106354816724626</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02544959114067639</v>
+        <v>0.01696929557834292</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2616859832.511729</v>
+        <v>3669960046.032864</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1440836457933602</v>
+        <v>0.1194109362122343</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04467945658539699</v>
+        <v>0.04194226302846556</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5247101625.484673</v>
+        <v>4839756259.302233</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1293602535100468</v>
+        <v>0.1320253405006648</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04099026020154746</v>
+        <v>0.04469435591098012</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1680857894.869793</v>
+        <v>1747462718.185339</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08541969691413283</v>
+        <v>0.1389892176776332</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03859395935727284</v>
+        <v>0.02554907048932861</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1150375219.357335</v>
+        <v>979775239.8506365</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07710793803114065</v>
+        <v>0.09407630850091078</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05169879851819844</v>
+        <v>0.03956688175053727</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1352192190.092054</v>
+        <v>1606151072.589089</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07790474719517858</v>
+        <v>0.08763954455597314</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0340799351848745</v>
+        <v>0.02374274894322478</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2408548012.635717</v>
+        <v>2400479112.256499</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1984771640207809</v>
+        <v>0.2024755608380131</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05084597729647504</v>
+        <v>0.06102284881791752</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1199523560.743739</v>
+        <v>1090142113.552537</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1148249234031303</v>
+        <v>0.1186095570006808</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02117576424173602</v>
+        <v>0.01798753028792183</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>986469744.1215048</v>
+        <v>1185233479.488119</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08315535895239248</v>
+        <v>0.07204968070816614</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03397739904677745</v>
+        <v>0.03921437668021385</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3087264823.641056</v>
+        <v>1960564180.144702</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1174360074890426</v>
+        <v>0.1388500206206976</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02736142247311108</v>
+        <v>0.01894589782914142</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2887585893.411358</v>
+        <v>1783559936.467499</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07582344950261961</v>
+        <v>0.07089873430882986</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02819817138945857</v>
+        <v>0.03517927448926826</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1727893524.709552</v>
+        <v>1939159828.895569</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08356808740959729</v>
+        <v>0.1217571461626476</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02822594211949947</v>
+        <v>0.0345261766833568</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1841567110.557076</v>
+        <v>2002454828.416402</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1463713345735893</v>
+        <v>0.1831623015663992</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02722802415461806</v>
+        <v>0.0324063246065278</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1215481190.973789</v>
+        <v>1442707326.156501</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1553519922870686</v>
+        <v>0.1394048107576333</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0391014344078054</v>
+        <v>0.03741787908710933</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2269861202.300355</v>
+        <v>2082602818.418767</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1635469790366203</v>
+        <v>0.1009617991404043</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03178878138071465</v>
+        <v>0.0471575007965058</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3781522958.037784</v>
+        <v>2749350119.528045</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09971062014409464</v>
+        <v>0.1017847900057389</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0362168395087022</v>
+        <v>0.03775907399187415</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2021941386.392014</v>
+        <v>1938034027.380918</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1709340419832542</v>
+        <v>0.1809404488378766</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0240813799154696</v>
+        <v>0.02337391583479462</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1539364282.955304</v>
+        <v>2296277869.630304</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06860485481238615</v>
+        <v>0.08501011961125901</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0362391865749117</v>
+        <v>0.03405677258533833</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2385774105.909247</v>
+        <v>1593434742.905996</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1385489890869239</v>
+        <v>0.143200302558187</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04686805018017871</v>
+        <v>0.0545463303323653</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4214603284.076314</v>
+        <v>4749262032.32271</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1347471739384659</v>
+        <v>0.1562672932030447</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05035430624609177</v>
+        <v>0.05828158361997777</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3165535645.78861</v>
+        <v>3279034579.722001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1619599721090986</v>
+        <v>0.1398606928069608</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05304449870938877</v>
+        <v>0.04475442053034456</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3518107366.27013</v>
+        <v>4043971182.595862</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09496286204241193</v>
+        <v>0.08912185592900865</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03707172271998679</v>
+        <v>0.03652037248704221</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1674123837.211397</v>
+        <v>1258737026.617688</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1795866502135745</v>
+        <v>0.1508316435232668</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02705114457121673</v>
+        <v>0.0281755737993823</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2590036533.554962</v>
+        <v>2941821221.837574</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1256703087709975</v>
+        <v>0.1566897408473386</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04626772265165335</v>
+        <v>0.04899663799622095</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1161417884.126915</v>
+        <v>1378847616.182046</v>
       </c>
       <c r="F51" t="n">
-        <v>0.145055270812198</v>
+        <v>0.1262268775597024</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05032776101801602</v>
+        <v>0.03381680716902152</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4148282747.582353</v>
+        <v>3855045647.383158</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1194678215272199</v>
+        <v>0.1358128971190006</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04196032019316503</v>
+        <v>0.05171447895245916</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3477932747.139747</v>
+        <v>3174076038.99373</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1851211712379173</v>
+        <v>0.1782343148786918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03219002532496797</v>
+        <v>0.03335781597046027</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4896825253.434987</v>
+        <v>3620642367.180218</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1689371119936963</v>
+        <v>0.1375685012885923</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04794899970540166</v>
+        <v>0.0392068107879435</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4934130356.803</v>
+        <v>3944073530.491809</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1838075460350744</v>
+        <v>0.1351736389169567</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02994965416834802</v>
+        <v>0.02657008631102804</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1793313277.272793</v>
+        <v>1474255047.999454</v>
       </c>
       <c r="F56" t="n">
-        <v>0.14682488691645</v>
+        <v>0.158034279619122</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05021052142657139</v>
+        <v>0.04998261917256926</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3939204757.482396</v>
+        <v>4446562303.402189</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1118224249574216</v>
+        <v>0.1847571876789105</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02470346224976058</v>
+        <v>0.02356144552269675</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1366650032.453183</v>
+        <v>1575525730.46362</v>
       </c>
       <c r="F58" t="n">
-        <v>0.195587214664219</v>
+        <v>0.1367733723228851</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0333523525213418</v>
+        <v>0.03236484235083832</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5326498045.908502</v>
+        <v>5128209575.274966</v>
       </c>
       <c r="F59" t="n">
-        <v>0.102841502080224</v>
+        <v>0.1251799740777527</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04083584391414976</v>
+        <v>0.04584267004935615</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2948399382.722223</v>
+        <v>3435953512.677722</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1338632670907312</v>
+        <v>0.1673888380742573</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02506015275999508</v>
+        <v>0.02098696473303819</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3331806607.691718</v>
+        <v>2748354158.065844</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1698436309890843</v>
+        <v>0.131976514127865</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02558588177467231</v>
+        <v>0.02533434236012365</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1935024100.444189</v>
+        <v>2063436654.302549</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1771849545816318</v>
+        <v>0.1371155934097474</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04967348921866578</v>
+        <v>0.03822763734242116</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5057585102.609581</v>
+        <v>4345458570.223926</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1041148547484046</v>
+        <v>0.08736278541308506</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03910633262319409</v>
+        <v>0.04343784340847566</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4204709825.596528</v>
+        <v>4822980588.789949</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1200822727910324</v>
+        <v>0.1195607791375455</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02191475442628852</v>
+        <v>0.03037096852114292</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5458655616.650515</v>
+        <v>3616849820.632174</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1632811953993819</v>
+        <v>0.1364295280443188</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02426582260218479</v>
+        <v>0.02933718455564824</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4562569212.382781</v>
+        <v>5692711269.203124</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09977574518310203</v>
+        <v>0.1059416263102779</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04729183668787395</v>
+        <v>0.03614183881695188</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2286927335.221981</v>
+        <v>2388277872.832584</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06362326725761287</v>
+        <v>0.0704820163621605</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04330021572433024</v>
+        <v>0.04219749396166008</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4532776363.284254</v>
+        <v>4020842256.021832</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1150677916501154</v>
+        <v>0.1080162596078712</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03565460542805766</v>
+        <v>0.04932434365725209</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1794012371.068501</v>
+        <v>2092326844.735045</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1567969869453767</v>
+        <v>0.1566225326572525</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03746136686732474</v>
+        <v>0.04902404084033501</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2926322757.754856</v>
+        <v>3113467553.075702</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09152066575834386</v>
+        <v>0.0735706180845538</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04469696136034187</v>
+        <v>0.03456090512020647</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4943905126.685741</v>
+        <v>4388333240.819747</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1400742437014702</v>
+        <v>0.1336400567015012</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0273615133610228</v>
+        <v>0.03238301846729859</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1376507206.135871</v>
+        <v>1600949064.855338</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07909296925632553</v>
+        <v>0.1046226587597748</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03712768456160512</v>
+        <v>0.03548277894098797</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2598732757.173927</v>
+        <v>2341643235.342459</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06890763445348777</v>
+        <v>0.09135671109599883</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03424493961393273</v>
+        <v>0.0320589506548923</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3714973443.046789</v>
+        <v>3360050991.221641</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1280847205601214</v>
+        <v>0.1342618773018733</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02232349181604987</v>
+        <v>0.02276163463556441</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2441760286.215489</v>
+        <v>2438314520.697947</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1460294035978157</v>
+        <v>0.132716492380418</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03637072057074373</v>
+        <v>0.02576170507151525</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3593617334.081468</v>
+        <v>4753670014.479911</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1233382885437617</v>
+        <v>0.1211658962867388</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0326344548716471</v>
+        <v>0.0223188361821625</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1644884627.355244</v>
+        <v>1716602206.64872</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1134767114596974</v>
+        <v>0.1748741309693061</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02897189555250814</v>
+        <v>0.02441980157934576</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4429719527.778797</v>
+        <v>3241443347.878499</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1270385393010693</v>
+        <v>0.1085039846564161</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05567917717599513</v>
+        <v>0.03892161990484111</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1301454321.430819</v>
+        <v>1531002495.270316</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1523837505586109</v>
+        <v>0.1205177634111443</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02538143204155412</v>
+        <v>0.03992690843033693</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4140821823.93725</v>
+        <v>5544651856.869256</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1102964842145884</v>
+        <v>0.07449854624192753</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02845042182936012</v>
+        <v>0.02475150968654852</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3451099602.159558</v>
+        <v>4039069685.084565</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09877313750938457</v>
+        <v>0.09121732354482569</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01999526626706379</v>
+        <v>0.03158369479003297</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5307376571.176397</v>
+        <v>4134085304.926904</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1734780024378632</v>
+        <v>0.1645482315757764</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02901576581771295</v>
+        <v>0.020151522439598</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1644432411.381885</v>
+        <v>1802122932.634213</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1102789719250245</v>
+        <v>0.1196662315639623</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04300729155675472</v>
+        <v>0.03304248076866152</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1728342488.793393</v>
+        <v>2365566293.75897</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1125180589169309</v>
+        <v>0.1081600005471475</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03407016100678867</v>
+        <v>0.04380255054829431</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2854097105.027645</v>
+        <v>2340439126.126952</v>
       </c>
       <c r="F85" t="n">
-        <v>0.120124922665853</v>
+        <v>0.1393896749886618</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05112181327861583</v>
+        <v>0.05058869218327971</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1904168877.336214</v>
+        <v>2659102748.847688</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1434831060898133</v>
+        <v>0.1731574017729051</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02398908718777024</v>
+        <v>0.02581642115285974</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1395674509.684869</v>
+        <v>1112367826.018488</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1377739298441954</v>
+        <v>0.1164114310677124</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03548347613881028</v>
+        <v>0.0342487221259209</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2669318259.195663</v>
+        <v>3350224203.856597</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1575986500122887</v>
+        <v>0.1246171438955142</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02452442090591441</v>
+        <v>0.02486615198352772</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2344581901.996716</v>
+        <v>3446721453.789751</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1491329736542651</v>
+        <v>0.1260241121359455</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02714941349993272</v>
+        <v>0.04014030536170978</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1979244865.720582</v>
+        <v>1543196281.398285</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1160162610341873</v>
+        <v>0.1017073422415399</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03563594862399421</v>
+        <v>0.05347361451838334</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2047687562.68298</v>
+        <v>1705355330.0853</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1562710119424727</v>
+        <v>0.123246522430988</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05444363740906793</v>
+        <v>0.05551017314122538</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2596795249.520308</v>
+        <v>2540952863.590589</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09812124848110987</v>
+        <v>0.09996832047281931</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03721738049802804</v>
+        <v>0.03758137713275817</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4686447171.164256</v>
+        <v>4604090702.790607</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08887940716387707</v>
+        <v>0.1101168929634523</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05053286096528711</v>
+        <v>0.04743168895461879</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2145772670.890463</v>
+        <v>1678630959.105347</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1585132987475961</v>
+        <v>0.1313851855109124</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03793541748261759</v>
+        <v>0.0313710426876253</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2616280542.096707</v>
+        <v>2551406214.089181</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08725047754291336</v>
+        <v>0.1112870875040352</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0424735467612118</v>
+        <v>0.0366662314496187</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1480295713.879481</v>
+        <v>2000752687.309715</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1162058574684408</v>
+        <v>0.1209774643134859</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0367728839535993</v>
+        <v>0.03448350703886549</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3331018877.979772</v>
+        <v>3577572730.661484</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1089817084982488</v>
+        <v>0.1237654287143901</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01850212935571304</v>
+        <v>0.02012077361182864</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2474161353.915818</v>
+        <v>3906310883.978407</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1239259491718573</v>
+        <v>0.1259139981172778</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0270126582423374</v>
+        <v>0.0228401222209037</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3437876273.426574</v>
+        <v>2417327283.000049</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1430011818503265</v>
+        <v>0.1399936517693804</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02704633396293832</v>
+        <v>0.03293983249823752</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4028137576.778741</v>
+        <v>3237787089.608841</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1086199034284434</v>
+        <v>0.167127035412731</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02164070482491548</v>
+        <v>0.02506162245856472</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2388370449.866262</v>
+        <v>3198936838.780549</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2078758762783471</v>
+        <v>0.1964893893932927</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03733485122661759</v>
+        <v>0.04580121401064977</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_450.xlsx
+++ b/output/fit_clients/fit_round_450.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2365272753.711787</v>
+        <v>1762594971.214477</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09642169498746138</v>
+        <v>0.1084955379947158</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03699590715693294</v>
+        <v>0.04064719040739838</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1746400528.268686</v>
+        <v>1617227122.735806</v>
       </c>
       <c r="F3" t="n">
-        <v>0.156278485529394</v>
+        <v>0.1495798187504609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04025947590557572</v>
+        <v>0.04892435037642189</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3980424393.748933</v>
+        <v>4498135899.730365</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1272959409563038</v>
+        <v>0.1097357171305418</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02652865170093632</v>
+        <v>0.02928223734241418</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>227</v>
+      </c>
+      <c r="J4" t="n">
+        <v>450</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4195589140.399561</v>
+        <v>3128029910.487792</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07963210212526191</v>
+        <v>0.08378828944771874</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04773659360535323</v>
+        <v>0.04063395166642131</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>189</v>
+      </c>
+      <c r="J5" t="n">
+        <v>448</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2527701310.172758</v>
+        <v>2655604579.597474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1287361056975011</v>
+        <v>0.1116903222034907</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04363395034219748</v>
+        <v>0.0369673555847552</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2272209621.777255</v>
+        <v>2795236596.959001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06253600499832894</v>
+        <v>0.09153468777841862</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03658393269736628</v>
+        <v>0.04085987106057849</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3954870993.113489</v>
+        <v>3194944686.078497</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1440561605710856</v>
+        <v>0.1606294109619636</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02086321019880761</v>
+        <v>0.03252348053727425</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>124</v>
+      </c>
+      <c r="J8" t="n">
+        <v>450</v>
+      </c>
+      <c r="K8" t="n">
+        <v>43.08936653237732</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1399211815.284708</v>
+        <v>1552469267.196559</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1802366371214918</v>
+        <v>0.1513541618545701</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02661051890076953</v>
+        <v>0.03173479180495509</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5541880080.48613</v>
+        <v>4087339884.050006</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1381876751069811</v>
+        <v>0.1606419968983684</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04856463364122122</v>
+        <v>0.0374223509032031</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>350</v>
+      </c>
+      <c r="J10" t="n">
+        <v>449</v>
+      </c>
+      <c r="K10" t="n">
+        <v>34.98350499996695</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3193304979.155643</v>
+        <v>3411141095.794539</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1293267371719459</v>
+        <v>0.1719827400215281</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04827919270646416</v>
+        <v>0.03179666024141339</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>187</v>
+      </c>
+      <c r="J11" t="n">
+        <v>450</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40.50564559396604</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2550396783.891543</v>
+        <v>3231259975.04002</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1297998030831689</v>
+        <v>0.1782865456193382</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05233634498315197</v>
+        <v>0.03337945058551506</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5286308229.755032</v>
+        <v>4053445143.697945</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09252521275805116</v>
+        <v>0.09061101344668394</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02758364693179744</v>
+        <v>0.02125321688136462</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>233</v>
+      </c>
+      <c r="J13" t="n">
+        <v>450</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3206247679.984286</v>
+        <v>2923087452.801998</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1861544328075939</v>
+        <v>0.1225210062735306</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03307346262941473</v>
+        <v>0.02861614096049865</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>444</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1585956938.012815</v>
+        <v>1118113650.027727</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08248879020345008</v>
+        <v>0.1070720928350787</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04221309808763312</v>
+        <v>0.03898978869714412</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2660247121.025552</v>
+        <v>2888357216.300727</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07328368429808216</v>
+        <v>0.08549256223964481</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04910913399410005</v>
+        <v>0.03359630033764345</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4928241814.417413</v>
+        <v>4573102339.309895</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1351811146392329</v>
+        <v>0.1482406061302784</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0498962785000733</v>
+        <v>0.04622267599901891</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>219</v>
+      </c>
+      <c r="J17" t="n">
+        <v>449</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35.10327712908246</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3872293098.143129</v>
+        <v>2815268810.892552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1772793577584328</v>
+        <v>0.1214807046608255</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02143391946546608</v>
+        <v>0.02641227352976473</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>120</v>
+      </c>
+      <c r="J18" t="n">
+        <v>449</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31.16553915730477</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1118932208.866454</v>
+        <v>1208775629.191921</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1661093205432614</v>
+        <v>0.1428410580344043</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02044194322851951</v>
+        <v>0.01748187142016892</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2357551826.743434</v>
+        <v>2526976735.733399</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1020830900429165</v>
+        <v>0.1331872497005475</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0275462089089008</v>
+        <v>0.02027190848640098</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2483108499.926262</v>
+        <v>2343775987.01571</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09102036083262574</v>
+        <v>0.06522460528116064</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03017113863993345</v>
+        <v>0.04049660755046298</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2860326353.132175</v>
+        <v>3081066970.064263</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1131211392990285</v>
+        <v>0.1423518660119703</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03790701866632447</v>
+        <v>0.05603920293352515</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+      <c r="K22" t="n">
+        <v>36.25175192882829</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1096704156.065306</v>
+        <v>984918341.2510757</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1177076635339466</v>
+        <v>0.171198822999125</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05184395853925305</v>
+        <v>0.05018876593383083</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4037286086.412449</v>
+        <v>3823092446.545367</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1254706749721947</v>
+        <v>0.1311085824133849</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0302575074338173</v>
+        <v>0.03734927275977721</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>142</v>
+      </c>
+      <c r="J24" t="n">
+        <v>450</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1446800152.876986</v>
+        <v>1411053165.743085</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1017154558862237</v>
+        <v>0.07479363836214481</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03025511004449734</v>
+        <v>0.02278954985831139</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1390473777.112179</v>
+        <v>914481325.6155025</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08220103945196129</v>
+        <v>0.07729408788628322</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02844801555157119</v>
+        <v>0.02376180014692821</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4512689217.602966</v>
+        <v>3140109454.786267</v>
       </c>
       <c r="F27" t="n">
-        <v>0.106354816724626</v>
+        <v>0.1385664580455207</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01696929557834292</v>
+        <v>0.02603321069841301</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>195</v>
+      </c>
+      <c r="J27" t="n">
+        <v>448</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3669960046.032864</v>
+        <v>3365182470.530012</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1194109362122343</v>
+        <v>0.1082076423036084</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04194226302846556</v>
+        <v>0.03319778546908458</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4839756259.302233</v>
+        <v>4302692942.686789</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1320253405006648</v>
+        <v>0.1317828834320058</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04469435591098012</v>
+        <v>0.03691778914906205</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>366</v>
+      </c>
+      <c r="J29" t="n">
+        <v>449</v>
+      </c>
+      <c r="K29" t="n">
+        <v>32.9163719065216</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1747462718.185339</v>
+        <v>2230384908.538818</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1389892176776332</v>
+        <v>0.09388781373227187</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02554907048932861</v>
+        <v>0.03627169233941102</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>979775239.8506365</v>
+        <v>1289782597.559248</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09407630850091078</v>
+        <v>0.08354522742635653</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03956688175053727</v>
+        <v>0.03952929023129262</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1606151072.589089</v>
+        <v>1361720573.666661</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08763954455597314</v>
+        <v>0.1155161554696212</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02374274894322478</v>
+        <v>0.03102712287998192</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2400479112.256499</v>
+        <v>2329782385.677163</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2024755608380131</v>
+        <v>0.128967271526721</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06102284881791752</v>
+        <v>0.04336369553084253</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1090142113.552537</v>
+        <v>1182569759.348955</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1186095570006808</v>
+        <v>0.09974676457056687</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01798753028792183</v>
+        <v>0.01938911562847851</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1185233479.488119</v>
+        <v>1077467186.387454</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07204968070816614</v>
+        <v>0.07817912485817595</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03921437668021385</v>
+        <v>0.03709021877382418</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1960564180.144702</v>
+        <v>2115695658.64101</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1388500206206976</v>
+        <v>0.1164592554074937</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01894589782914142</v>
+        <v>0.01802700307432825</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1783559936.467499</v>
+        <v>1953896147.315758</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07089873430882986</v>
+        <v>0.08683596459009436</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03517927448926826</v>
+        <v>0.02930524035091726</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1939159828.895569</v>
+        <v>1851316608.658323</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1217571461626476</v>
+        <v>0.08639882272071366</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0345261766833568</v>
+        <v>0.03607380388247577</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2002454828.416402</v>
+        <v>1884371625.657244</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1831623015663992</v>
+        <v>0.1454833879936279</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0324063246065278</v>
+        <v>0.02289688162735255</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1442707326.156501</v>
+        <v>1648771594.449854</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1394048107576333</v>
+        <v>0.1183445416485127</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03741787908710933</v>
+        <v>0.04646445707880149</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2082602818.418767</v>
+        <v>2600564215.873836</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1009617991404043</v>
+        <v>0.1415884720800624</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0471575007965058</v>
+        <v>0.04453317666012694</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2749350119.528045</v>
+        <v>3183283685.899382</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1017847900057389</v>
+        <v>0.1115291464734757</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03775907399187415</v>
+        <v>0.03667709340913693</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>197</v>
+      </c>
+      <c r="J42" t="n">
+        <v>449</v>
+      </c>
+      <c r="K42" t="n">
+        <v>33.44534794575721</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1938034027.380918</v>
+        <v>2917125269.093921</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1809404488378766</v>
+        <v>0.2025698305573761</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02337391583479462</v>
+        <v>0.01694008507343443</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2296277869.630304</v>
+        <v>1969505631.056753</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08501011961125901</v>
+        <v>0.0984485102983461</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03405677258533833</v>
+        <v>0.02813346968083109</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1593434742.905996</v>
+        <v>2223852528.165084</v>
       </c>
       <c r="F45" t="n">
-        <v>0.143200302558187</v>
+        <v>0.1738582462562702</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0545463303323653</v>
+        <v>0.03560764548175132</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4749262032.32271</v>
+        <v>5673034342.227094</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1562672932030447</v>
+        <v>0.1094793945717894</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05828158361997777</v>
+        <v>0.0589704017362406</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>267</v>
+      </c>
+      <c r="J46" t="n">
+        <v>450</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3279034579.722001</v>
+        <v>4712663957.552158</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1398606928069608</v>
+        <v>0.126635479674173</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04475442053034456</v>
+        <v>0.05492817109496889</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>203</v>
+      </c>
+      <c r="J47" t="n">
+        <v>449</v>
+      </c>
+      <c r="K47" t="n">
+        <v>35.15910393439114</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4043971182.595862</v>
+        <v>4013619731.373482</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08912185592900865</v>
+        <v>0.07297798881091008</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03652037248704221</v>
+        <v>0.02562838722975418</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>226</v>
+      </c>
+      <c r="J48" t="n">
+        <v>450</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1258737026.617688</v>
+        <v>1267275257.355505</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1508316435232668</v>
+        <v>0.1849293172106956</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0281755737993823</v>
+        <v>0.03904746751388609</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2941821221.837574</v>
+        <v>3815606991.670985</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1566897408473386</v>
+        <v>0.1172347975004279</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04899663799622095</v>
+        <v>0.04867943755226922</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>160</v>
+      </c>
+      <c r="J50" t="n">
+        <v>450</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1378847616.182046</v>
+        <v>1063986850.520062</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1262268775597024</v>
+        <v>0.1324687287856949</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03381680716902152</v>
+        <v>0.04180343845512247</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3855045647.383158</v>
+        <v>4443403584.174461</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1358128971190006</v>
+        <v>0.1185066716805817</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05171447895245916</v>
+        <v>0.04298486899233871</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>256</v>
+      </c>
+      <c r="J52" t="n">
+        <v>450</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3174076038.99373</v>
+        <v>2371892130.146658</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1782343148786918</v>
+        <v>0.1912194979972675</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03335781597046027</v>
+        <v>0.03137612659328119</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>446</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3620642367.180218</v>
+        <v>3967573213.92471</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1375685012885923</v>
+        <v>0.1516434143062679</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0392068107879435</v>
+        <v>0.04298713109085301</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>237</v>
+      </c>
+      <c r="J54" t="n">
+        <v>450</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3944073530.491809</v>
+        <v>4234411816.589654</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1351736389169567</v>
+        <v>0.1969221675955564</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02657008631102804</v>
+        <v>0.02430080458217238</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>223</v>
+      </c>
+      <c r="J55" t="n">
+        <v>450</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1474255047.999454</v>
+        <v>1717063283.258974</v>
       </c>
       <c r="F56" t="n">
-        <v>0.158034279619122</v>
+        <v>0.1257525972588178</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04998261917256926</v>
+        <v>0.05107676703412976</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4446562303.402189</v>
+        <v>2953210150.954432</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1847571876789105</v>
+        <v>0.1588967677690091</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02356144552269675</v>
+        <v>0.01693707373908013</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>195</v>
+      </c>
+      <c r="J57" t="n">
+        <v>447</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1575525730.46362</v>
+        <v>1305614684.59756</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1367733723228851</v>
+        <v>0.1874149413276304</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03236484235083832</v>
+        <v>0.02843467280349466</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5128209575.274966</v>
+        <v>5356143764.878759</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1251799740777527</v>
+        <v>0.1229104160488001</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04584267004935615</v>
+        <v>0.03321684069119574</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>220</v>
+      </c>
+      <c r="J59" t="n">
+        <v>449</v>
+      </c>
+      <c r="K59" t="n">
+        <v>34.64783878156761</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3435953512.677722</v>
+        <v>2855418017.410948</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1673888380742573</v>
+        <v>0.1646702310533418</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02098696473303819</v>
+        <v>0.02092126731409153</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2748354158.065844</v>
+        <v>3085613277.126459</v>
       </c>
       <c r="F61" t="n">
-        <v>0.131976514127865</v>
+        <v>0.1474320494774233</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02533434236012365</v>
+        <v>0.03204976111624976</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2063436654.302549</v>
+        <v>1728814455.448404</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1371155934097474</v>
+        <v>0.1758329404754414</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03822763734242116</v>
+        <v>0.03816738989268714</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4345458570.223926</v>
+        <v>4972328802.402885</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08736278541308506</v>
+        <v>0.08141408842533132</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04343784340847566</v>
+        <v>0.03554162437200081</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>225</v>
+      </c>
+      <c r="J63" t="n">
+        <v>449</v>
+      </c>
+      <c r="K63" t="n">
+        <v>34.0862165230916</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4822980588.789949</v>
+        <v>4905657820.798714</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1195607791375455</v>
+        <v>0.1483416969759059</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03037096852114292</v>
+        <v>0.02549316307513642</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>225</v>
+      </c>
+      <c r="J64" t="n">
+        <v>450</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3616849820.632174</v>
+        <v>4818547207.491067</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1364295280443188</v>
+        <v>0.128766148181095</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02933718455564824</v>
+        <v>0.02847269082086566</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>322</v>
+      </c>
+      <c r="J65" t="n">
+        <v>450</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2763,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5692711269.203124</v>
+        <v>5501419209.607301</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1059416263102779</v>
+        <v>0.1520464159725428</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03614183881695188</v>
+        <v>0.03655790922807192</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>221</v>
+      </c>
+      <c r="J66" t="n">
+        <v>450</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2798,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2388277872.832584</v>
+        <v>2785876863.614591</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0704820163621605</v>
+        <v>0.09080532932542566</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04219749396166008</v>
+        <v>0.04661928864145565</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2833,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4020842256.021832</v>
+        <v>5206986447.812078</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1080162596078712</v>
+        <v>0.101711953345186</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04932434365725209</v>
+        <v>0.03495008753070301</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>245</v>
+      </c>
+      <c r="J68" t="n">
+        <v>449</v>
+      </c>
+      <c r="K68" t="n">
+        <v>33.69633048737762</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2092326844.735045</v>
+        <v>2185177201.979167</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1566225326572525</v>
+        <v>0.1597492016982112</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04902404084033501</v>
+        <v>0.0418909070665952</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2899,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3113467553.075702</v>
+        <v>3521535714.272381</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0735706180845538</v>
+        <v>0.06714323585752038</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03456090512020647</v>
+        <v>0.03690896537550033</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>65</v>
+      </c>
+      <c r="J70" t="n">
+        <v>450</v>
+      </c>
+      <c r="K70" t="n">
+        <v>53.60688322717616</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4388333240.819747</v>
+        <v>5657039645.852582</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1336400567015012</v>
+        <v>0.1588923489639119</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03238301846729859</v>
+        <v>0.02342677988989795</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>308</v>
+      </c>
+      <c r="J71" t="n">
+        <v>450</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1600949064.855338</v>
+        <v>2154078229.124283</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1046226587597748</v>
+        <v>0.1067115956094041</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03548277894098797</v>
+        <v>0.03736279821816734</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2341643235.342459</v>
+        <v>2721786368.957339</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09135671109599883</v>
+        <v>0.09214211155956176</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0320589506548923</v>
+        <v>0.03598179843303317</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3360050991.221641</v>
+        <v>2816620048.509565</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1342618773018733</v>
+        <v>0.1445668194483906</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02276163463556441</v>
+        <v>0.02852182304721636</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>129</v>
+      </c>
+      <c r="J74" t="n">
+        <v>447</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2438314520.697947</v>
+        <v>1894516478.175288</v>
       </c>
       <c r="F75" t="n">
-        <v>0.132716492380418</v>
+        <v>0.1614517208796994</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02576170507151525</v>
+        <v>0.02670604478270302</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4753670014.479911</v>
+        <v>3735403558.549536</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1211658962867388</v>
+        <v>0.1174051097354941</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0223188361821625</v>
+        <v>0.02079073998780594</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>214</v>
+      </c>
+      <c r="J76" t="n">
+        <v>450</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1716602206.64872</v>
+        <v>1448993091.06922</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1748741309693061</v>
+        <v>0.1781862310733467</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02441980157934576</v>
+        <v>0.02118076825601234</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3181,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3241443347.878499</v>
+        <v>3273885779.03331</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1085039846564161</v>
+        <v>0.1329690146069721</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03892161990484111</v>
+        <v>0.03642560883280782</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>224</v>
+      </c>
+      <c r="J78" t="n">
+        <v>448</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1531002495.270316</v>
+        <v>1374886632.921065</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1205177634111443</v>
+        <v>0.1619831626504641</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03992690843033693</v>
+        <v>0.03976135524099712</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3251,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5544651856.869256</v>
+        <v>4083297039.976786</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07449854624192753</v>
+        <v>0.1048521378901209</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02475150968654852</v>
+        <v>0.02364812647276637</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>219</v>
+      </c>
+      <c r="J80" t="n">
+        <v>450</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3286,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4039069685.084565</v>
+        <v>3231001917.940047</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09121732354482569</v>
+        <v>0.09613560269107295</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03158369479003297</v>
+        <v>0.0277523197723311</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>209</v>
+      </c>
+      <c r="J81" t="n">
+        <v>449</v>
+      </c>
+      <c r="K81" t="n">
+        <v>27.39130211576971</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3323,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4134085304.926904</v>
+        <v>3539397373.623172</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1645482315757764</v>
+        <v>0.1611956450563359</v>
       </c>
       <c r="G82" t="n">
-        <v>0.020151522439598</v>
+        <v>0.02394160215245843</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>300</v>
+      </c>
+      <c r="J82" t="n">
+        <v>448</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3364,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1802122932.634213</v>
+        <v>2467419249.905728</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1196662315639623</v>
+        <v>0.112806671577504</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03304248076866152</v>
+        <v>0.02880128420843362</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3393,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2365566293.75897</v>
+        <v>2444124512.101863</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1081600005471475</v>
+        <v>0.1038305303794445</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04380255054829431</v>
+        <v>0.03157964871572387</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3434,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2340439126.126952</v>
+        <v>2769300458.406762</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1393896749886618</v>
+        <v>0.1806553935673761</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05058869218327971</v>
+        <v>0.03998852495632718</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>62</v>
+      </c>
+      <c r="J85" t="n">
+        <v>450</v>
+      </c>
+      <c r="K85" t="n">
+        <v>42.98957795088214</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3465,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2659102748.847688</v>
+        <v>1950817425.416113</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1731574017729051</v>
+        <v>0.1222294250300115</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02581642115285974</v>
+        <v>0.01945660898636222</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3500,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1112367826.018488</v>
+        <v>1126885493.648412</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1164114310677124</v>
+        <v>0.1173413627239144</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0342487221259209</v>
+        <v>0.02704546600554323</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3535,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3350224203.856597</v>
+        <v>2519968793.063457</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1246171438955142</v>
+        <v>0.1091804383249091</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02486615198352772</v>
+        <v>0.03798132542586281</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="n">
+        <v>31.18472811549984</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3446721453.789751</v>
+        <v>3383708936.099628</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1260241121359455</v>
+        <v>0.118166608795936</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04014030536170978</v>
+        <v>0.02739955620921493</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3613,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1543196281.398285</v>
+        <v>1841940180.337418</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1017073422415399</v>
+        <v>0.102757891361092</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05347361451838334</v>
+        <v>0.05131178596246367</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1705355330.0853</v>
+        <v>1746191378.273789</v>
       </c>
       <c r="F91" t="n">
-        <v>0.123246522430988</v>
+        <v>0.1868097160509033</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05551017314122538</v>
+        <v>0.05750689991076227</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3683,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2540952863.590589</v>
+        <v>1839523553.410606</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09996832047281931</v>
+        <v>0.07239058342556889</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03758137713275817</v>
+        <v>0.0392195951450128</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4604090702.790607</v>
+        <v>4000194262.159062</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1101168929634523</v>
+        <v>0.1004635591734327</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04743168895461879</v>
+        <v>0.03839635397696022</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>216</v>
+      </c>
+      <c r="J93" t="n">
+        <v>449</v>
+      </c>
+      <c r="K93" t="n">
+        <v>34.77183385084819</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1678630959.105347</v>
+        <v>2203835210.545407</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1313851855109124</v>
+        <v>0.1239933593972417</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0313710426876253</v>
+        <v>0.03113892199893295</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2551406214.089181</v>
+        <v>2737111901.849755</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1112870875040352</v>
+        <v>0.1115602512929679</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0366662314496187</v>
+        <v>0.03781829643490976</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3825,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2000752687.309715</v>
+        <v>1918945445.196523</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1209774643134859</v>
+        <v>0.1163468379514754</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03448350703886549</v>
+        <v>0.04232723066625943</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3577572730.661484</v>
+        <v>4167055080.894574</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1237654287143901</v>
+        <v>0.1147732825335456</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02012077361182864</v>
+        <v>0.01988419927242998</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>235</v>
+      </c>
+      <c r="J97" t="n">
+        <v>449</v>
+      </c>
+      <c r="K97" t="n">
+        <v>35.43573900743718</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3906310883.978407</v>
+        <v>2469428231.487284</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1259139981172778</v>
+        <v>0.1158708369691487</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0228401222209037</v>
+        <v>0.02365939935402521</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>114</v>
+      </c>
+      <c r="J98" t="n">
+        <v>449</v>
+      </c>
+      <c r="K98" t="n">
+        <v>24.31154865823307</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2417327283.000049</v>
+        <v>2736951351.810277</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1399936517693804</v>
+        <v>0.1469867723704542</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03293983249823752</v>
+        <v>0.02359149542787559</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3237787089.608841</v>
+        <v>3774806931.046257</v>
       </c>
       <c r="F100" t="n">
-        <v>0.167127035412731</v>
+        <v>0.1672146766966741</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02506162245856472</v>
+        <v>0.02738689049222449</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>209</v>
+      </c>
+      <c r="J100" t="n">
+        <v>450</v>
+      </c>
+      <c r="K100" t="n">
+        <v>37.91471385962426</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3198936838.780549</v>
+        <v>2439385899.78197</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1964893893932927</v>
+        <v>0.1417806494088155</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04580121401064977</v>
+        <v>0.04237395163988553</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
